--- a/2018~2020 KBO 경기 결과.xlsx
+++ b/2018~2020 KBO 경기 결과.xlsx
@@ -22,16 +22,16 @@
     <t>구장</t>
   </si>
   <si>
-    <t>TEAM1</t>
-  </si>
-  <si>
-    <t>TEAM1_SCORE</t>
-  </si>
-  <si>
-    <t>TEAM2</t>
-  </si>
-  <si>
-    <t>TEAM2_SCORE</t>
+    <t>원정팀</t>
+  </si>
+  <si>
+    <t>원정팀 점수</t>
+  </si>
+  <si>
+    <t>홈팀</t>
+  </si>
+  <si>
+    <t>홈팀 점수</t>
   </si>
   <si>
     <t>2018-03-24 14:00</t>
